--- a/data/TASK 2.3.4 2022 - 2023 - Flusso Cultura.xlsx
+++ b/data/TASK 2.3.4 2022 - 2023 - Flusso Cultura.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://consorziagrariditalia.sharepoint.com/sites/SitoSHP_CAI/Documenti condivisi/Sede Centrale/Tecnici e R&amp;D/ricercasviluppo/Cristiani Claudio/PROGETTO PNRR AGRITECH/PROGETTO PNRR/REPORT PROGETTO GENERALE/TASK 2.3.4 ANNATA 2022-2023/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveunibo-my.sharepoint.com/personal/matteo_francia2_studio_unibo_it/Documents/Documents/repos/dataset-pnrr-spoke2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{9250C3CE-AA65-47A6-B6A0-5DFCB12AB6A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{593E4EA4-F5D0-409C-B266-4443EB6396CB}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{9250C3CE-AA65-47A6-B6A0-5DFCB12AB6A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42548FD3-8AEF-44B5-96DE-9108FEDBA6C0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{06003F17-5CB1-44B8-838E-5C3C1E26A2CC}"/>
+    <workbookView xWindow="13050" yWindow="4320" windowWidth="9840" windowHeight="4300" xr2:uid="{06003F17-5CB1-44B8-838E-5C3C1E26A2CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,15 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>Specie</t>
   </si>
@@ -70,6 +73,12 @@
   </si>
   <si>
     <t>Fokker</t>
+  </si>
+  <si>
+    <t>da</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -126,11 +135,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -445,21 +455,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FFB303B-3756-487D-A5C1-5A2D5F9004DB}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -475,8 +488,14 @@
       <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -492,8 +511,14 @@
       <c r="E2" t="s">
         <v>10</v>
       </c>
+      <c r="F2" s="4">
+        <v>44835</v>
+      </c>
+      <c r="G2" s="4">
+        <v>45138</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -509,8 +534,14 @@
       <c r="E3" t="s">
         <v>10</v>
       </c>
+      <c r="F3" s="4">
+        <v>44835</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45138</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -526,8 +557,14 @@
       <c r="E4" t="s">
         <v>10</v>
       </c>
+      <c r="F4" s="4">
+        <v>44835</v>
+      </c>
+      <c r="G4" s="4">
+        <v>45138</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -543,8 +580,14 @@
       <c r="E5" t="s">
         <v>11</v>
       </c>
+      <c r="F5" s="4">
+        <v>44621</v>
+      </c>
+      <c r="G5" s="4">
+        <v>45230</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -560,8 +603,14 @@
       <c r="E6" t="s">
         <v>11</v>
       </c>
+      <c r="F6" s="4">
+        <v>44621</v>
+      </c>
+      <c r="G6" s="4">
+        <v>45230</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -576,6 +625,12 @@
       </c>
       <c r="E7" t="s">
         <v>12</v>
+      </c>
+      <c r="F7" s="4">
+        <v>44621</v>
+      </c>
+      <c r="G7" s="4">
+        <v>45199</v>
       </c>
     </row>
   </sheetData>
@@ -585,26 +640,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="8d0ad65a-05b0-4576-ba97-3fba7ef64242" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ec9f8fc5-8766-4d78-a9a6-acc81b8e5366">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101003AD0A2D44F687740A29D74EB23F0CEDB" ma:contentTypeVersion="16" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="0cbee3a7b31ef12ad080c50c46137e00">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8d0ad65a-05b0-4576-ba97-3fba7ef64242" xmlns:ns3="ec9f8fc5-8766-4d78-a9a6-acc81b8e5366" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="95ce5791b71b5371617f4d3b4579cad3" ns2:_="" ns3:_="">
     <xsd:import namespace="8d0ad65a-05b0-4576-ba97-3fba7ef64242"/>
@@ -845,26 +880,27 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="8d0ad65a-05b0-4576-ba97-3fba7ef64242" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ec9f8fc5-8766-4d78-a9a6-acc81b8e5366">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3445D470-0D75-413A-8FC6-32F66EF90511}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8d0ad65a-05b0-4576-ba97-3fba7ef64242"/>
-    <ds:schemaRef ds:uri="ec9f8fc5-8766-4d78-a9a6-acc81b8e5366"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37166D58-CDF4-4F1A-9438-041FAC6E9C4C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A31A5AD-63AA-4342-BF9B-62689891FD68}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -881,4 +917,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37166D58-CDF4-4F1A-9438-041FAC6E9C4C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3445D470-0D75-413A-8FC6-32F66EF90511}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8d0ad65a-05b0-4576-ba97-3fba7ef64242"/>
+    <ds:schemaRef ds:uri="ec9f8fc5-8766-4d78-a9a6-acc81b8e5366"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>